--- a/Ergebnis Modenabstand in abh der res laenge.xlsx
+++ b/Ergebnis Modenabstand in abh der res laenge.xlsx
@@ -16,12 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Resonatorlänge</t>
   </si>
   <si>
     <t>Modenabstand in ms</t>
+  </si>
+  <si>
+    <t>Kalibrierung</t>
+  </si>
+  <si>
+    <t>Zeit in ms</t>
+  </si>
+  <si>
+    <t>Abstand in GHz</t>
   </si>
 </sst>
 </file>
@@ -201,11 +210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48685056"/>
-        <c:axId val="68795712"/>
+        <c:axId val="80660160"/>
+        <c:axId val="80660736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48685056"/>
+        <c:axId val="80660160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -215,12 +224,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68795712"/>
+        <c:crossAx val="80660736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68795712"/>
+        <c:axId val="80660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -231,7 +240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48685056"/>
+        <c:crossAx val="80660160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,92 +596,156 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2">
         <v>0.47742499999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>B2/$A$16*$B$16</f>
+        <v>0.59493694546904585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
       <c r="B3">
         <v>0.38211899999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3/$A$16*$B$16</f>
+        <v>0.476172614893829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39</v>
       </c>
       <c r="B4">
         <v>0.30938900000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.38554107267470838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46</v>
       </c>
       <c r="B5">
         <v>0.26089200000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.3251071677798823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
       <c r="B6">
         <v>0.22622700000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.28190982952846178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
         <v>0.20067699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.25007102980759643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
       <c r="B8">
         <v>0.180449</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.22486417106968393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>74</v>
       </c>
       <c r="B9">
         <v>0.163461</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.20369479613199082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
       <c r="B10">
         <v>0.145152</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.18087927424982553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>88</v>
       </c>
       <c r="B11">
         <v>0.13747500000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.17131268068986141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8.0248000000000008</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnis Modenabstand in abh der res laenge.xlsx
+++ b/Ergebnis Modenabstand in abh der res laenge.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Resonatorlänge</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Abstand in GHz</t>
+  </si>
+  <si>
+    <t>Theoretischer Abstand in GHz</t>
   </si>
 </sst>
 </file>
@@ -105,6 +108,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abstand in GHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -163,39 +177,136 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$11</c:f>
+              <c:f>Tabelle1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.47742499999999999</c:v>
+                  <c:v>0.59493694546904585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38211899999999999</c:v>
+                  <c:v>0.476172614893829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30938900000000003</c:v>
+                  <c:v>0.38554107267470838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26089200000000001</c:v>
+                  <c:v>0.3251071677798823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22622700000000001</c:v>
+                  <c:v>0.28190982952846178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20067699999999999</c:v>
+                  <c:v>0.25007102980759643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.180449</c:v>
+                  <c:v>0.22486417106968393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.163461</c:v>
+                  <c:v>0.20369479613199082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.145152</c:v>
+                  <c:v>0.18087927424982553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13747500000000001</c:v>
+                  <c:v>0.17131268068986141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Theoretischer Abstand in GHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32608695652173914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28301886792452829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22388059701492535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20270270270270271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18518518518518517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17045454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -210,11 +321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80660160"/>
-        <c:axId val="80660736"/>
+        <c:axId val="132352256"/>
+        <c:axId val="132352832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80660160"/>
+        <c:axId val="132352256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -224,12 +335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80660736"/>
+        <c:crossAx val="132352832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80660736"/>
+        <c:axId val="132352832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80660160"/>
+        <c:crossAx val="132352256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -266,16 +377,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -584,19 +695,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +718,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -618,8 +733,12 @@
         <f>B2/$A$16*$B$16</f>
         <v>0.59493694546904585</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>300000000/(2*A2/100)/1000000000</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -630,8 +749,12 @@
         <f t="shared" ref="C3:C11" si="0">B3/$A$16*$B$16</f>
         <v>0.476172614893829</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="1">300000000/(2*A3/100)/1000000000</f>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39</v>
       </c>
@@ -642,8 +765,12 @@
         <f t="shared" si="0"/>
         <v>0.38554107267470838</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46</v>
       </c>
@@ -654,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>0.3251071677798823</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.32608695652173914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
@@ -666,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>0.28190982952846178</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.28301886792452829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -678,8 +813,12 @@
         <f t="shared" si="0"/>
         <v>0.25007102980759643</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
@@ -690,8 +829,12 @@
         <f t="shared" si="0"/>
         <v>0.22486417106968393</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.22388059701492535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>74</v>
       </c>
@@ -702,8 +845,12 @@
         <f t="shared" si="0"/>
         <v>0.20369479613199082</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -714,8 +861,12 @@
         <f t="shared" si="0"/>
         <v>0.18087927424982553</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>88</v>
       </c>
@@ -726,13 +877,17 @@
         <f t="shared" si="0"/>
         <v>0.17131268068986141</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.17045454545454547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -740,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.0248000000000008</v>
       </c>
